--- a/SIRS MODELS/galicia.xlsx
+++ b/SIRS MODELS/galicia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6576EE-D987-4E89-9C43-4EBF842AD542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43362A4C-72F0-4632-83C1-67F1E1CE2AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,25 +191,25 @@
     <t>EXPOSED QUARANTINE REDUCTION</t>
   </si>
   <si>
-    <t xml:space="preserve">AVERAGE NEW INFECTED PER INFECTED WITHOUT QUARANTINE </t>
-  </si>
-  <si>
     <t>DATA</t>
   </si>
   <si>
     <t>Real I</t>
   </si>
   <si>
-    <t>PREQUARANTINE AVERAGE CONTAGION PER PERSON</t>
-  </si>
-  <si>
-    <t>POSTQUARANTINE AVERAGE CONTAGION PER PERSON</t>
-  </si>
-  <si>
     <t>GALICIA</t>
   </si>
   <si>
     <t>SIRS MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERAGE INFECTED INTERACTION WITHOUT QUARANTINE </t>
+  </si>
+  <si>
+    <t>PREQUARANTINE CONTAGION RATIO PER PERSON</t>
+  </si>
+  <si>
+    <t>POSTQUARANTINE CONTAGION RATIO PER PERSON</t>
   </si>
 </sst>
 </file>
@@ -1270,31 +1270,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5167,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5184,7 +5184,7 @@
     <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="132"/>
       <c r="D2" s="132"/>
@@ -5192,7 +5192,7 @@
       <c r="F2" s="132"/>
       <c r="G2" s="133"/>
       <c r="H2" s="134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I2" s="135"/>
       <c r="J2" s="135"/>
@@ -5201,7 +5201,7 @@
       <c r="M2" s="135"/>
       <c r="N2" s="136"/>
       <c r="P2" s="134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="135"/>
       <c r="R2" s="135"/>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="140" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="141"/>
       <c r="R6" s="141"/>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="141"/>
       <c r="R7" s="141"/>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="141"/>
       <c r="R8" s="141"/>
@@ -6054,7 +6054,7 @@
         <v>24</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>26</v>
@@ -17549,15 +17549,15 @@
         <v>-1</v>
       </c>
       <c r="P177" s="96">
-        <f t="shared" ref="P177:P208" si="91">R$13*((1+P$13-Q$13)*(1+P$13+S$13)-Q$13)</f>
+        <f t="shared" ref="P177:P204" si="91">R$13*((1+P$13-Q$13)*(1+P$13+S$13)-Q$13)</f>
         <v>1.8596361737754693E-5</v>
       </c>
       <c r="Q177" s="95">
-        <f t="shared" ref="Q177:Q208" si="92">(1+P$13-Q$13)*(1+P$13+S$13)-R$13*((S$13*K176)+((I176+J176)*(1+P$13+S$13)))</f>
+        <f t="shared" ref="Q177:Q204" si="92">(1+P$13-Q$13)*(1+P$13+S$13)-R$13*((S$13*K176)+((I176+J176)*(1+P$13+S$13)))</f>
         <v>1.804323231275835</v>
       </c>
       <c r="R177" s="95">
-        <f t="shared" ref="R177:R208" si="93">-J176*(1+P$13+S$13)</f>
+        <f t="shared" ref="R177:R204" si="93">-J176*(1+P$13+S$13)</f>
         <v>-25630.540869565251</v>
       </c>
       <c r="S177" s="13">
@@ -18235,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="I187" s="9">
-        <f t="shared" ref="I187:I218" si="98">INT((S$13*K187+I186)/(1+R$13*J187))</f>
+        <f t="shared" ref="I187:I204" si="98">INT((S$13*K187+I186)/(1+R$13*J187))</f>
         <v>1912</v>
       </c>
       <c r="J187" s="3">
@@ -18243,7 +18243,7 @@
         <v>11997</v>
       </c>
       <c r="K187" s="43">
-        <f t="shared" ref="K187:K218" si="100">INT((Q$13*J187+K186)/(1+P$13+S$13))</f>
+        <f t="shared" ref="K187:K204" si="100">INT((Q$13*J187+K186)/(1+P$13+S$13))</f>
         <v>210</v>
       </c>
       <c r="L187" s="9">
